--- a/2_Start_DataAnalysis/files/sample_2.xlsx
+++ b/2_Start_DataAnalysis/files/sample_2.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namso\Documents\play_with_book\datasalon\2_Start_DataAnalysis\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangwook\private_sw\proj_py\datasalon-master\1_파이썬설치&amp;기본문법\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF53902-606F-4A23-81A9-65FAFF94F7A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB1D6F8-A450-46ED-823E-DFA0D271BF34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4668" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24650" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,7 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -479,12 +481,12 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -492,7 +494,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -506,7 +508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,7 +522,7 @@
         <v>75992</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,7 +536,7 @@
         <v>115397</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -548,7 +550,7 @@
         <v>129908</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -562,7 +564,7 @@
         <v>191236</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -573,7 +575,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -585,6 +587,7 @@
       <c r="D8" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:D2" xr:uid="{F8D4BDCB-0DFE-484B-8533-A4EF80A33EBA}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
